--- a/output/fit_clients/fit_round_223.xlsx
+++ b/output/fit_clients/fit_round_223.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1930782804.283882</v>
+        <v>2136592430.185724</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0881520733711916</v>
+        <v>0.1060619694311266</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03705674614142346</v>
+        <v>0.0276748324198023</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>965391388.5026906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1708823541.77852</v>
+        <v>1925970281.261579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1610927533188967</v>
+        <v>0.1302257413744677</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05053034651814595</v>
+        <v>0.04582135010186685</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>854411765.8354125</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3851873940.453418</v>
+        <v>3716500070.738558</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1450799254526383</v>
+        <v>0.1497067565119872</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03217054759731281</v>
+        <v>0.03537554727555219</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>80</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1925936973.894823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3787134914.669202</v>
+        <v>3404665824.979314</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1105498800625497</v>
+        <v>0.08520436143676317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03816310288349852</v>
+        <v>0.04484978566200001</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>87</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1893567475.070317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2479652117.675213</v>
+        <v>2388661621.624739</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1191333207086329</v>
+        <v>0.14164321440012</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05163335438262205</v>
+        <v>0.0536865797479323</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1239826036.507833</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2075401787.434488</v>
+        <v>2437328310.875643</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07958802536269897</v>
+        <v>0.06439490381255587</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03828330229830429</v>
+        <v>0.03623878668993544</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>68</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1037700947.587869</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3395576700.640614</v>
+        <v>3590694228.464381</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2078532123082494</v>
+        <v>0.1335459492175625</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0324198032756897</v>
+        <v>0.02944222346303784</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1697788448.261109</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1950440218.977349</v>
+        <v>1729063686.510254</v>
       </c>
       <c r="F9" t="n">
-        <v>0.13254512007733</v>
+        <v>0.1932235984798761</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03289109847232842</v>
+        <v>0.02952173678056464</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>975220142.9482682</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5615461444.387368</v>
+        <v>5622592447.737712</v>
       </c>
       <c r="F10" t="n">
-        <v>0.131127230981733</v>
+        <v>0.17460361405461</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03588641891101539</v>
+        <v>0.04835573865436651</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>94</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2807730869.136719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2689150508.35146</v>
+        <v>2869874417.270166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1822737623583117</v>
+        <v>0.1827958501761329</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04352116762625032</v>
+        <v>0.04505658831948038</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>92</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1344575175.398838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2280743069.068256</v>
+        <v>2584207658.221962</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1831029156895379</v>
+        <v>0.1241549662152864</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05397985087970703</v>
+        <v>0.04475806053791506</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>77</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1140371486.684132</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5316821230.829649</v>
+        <v>4336460265.790859</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07631608120764195</v>
+        <v>0.08810649935973558</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03022383888180855</v>
+        <v>0.02544601251959478</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>75</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2658410603.43268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3458509146.682026</v>
+        <v>2791886609.767159</v>
       </c>
       <c r="F14" t="n">
-        <v>0.116793566770443</v>
+        <v>0.1196488001227068</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0375593778122111</v>
+        <v>0.03468713904534797</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>72</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1729254574.567648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1361918979.161082</v>
+        <v>1546397643.476436</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1070193208790809</v>
+        <v>0.09508493254319053</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0463689991470469</v>
+        <v>0.04544052265501922</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>680959543.75919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2399401648.021447</v>
+        <v>1906462751.580662</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09236005258546244</v>
+        <v>0.1113216007538342</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03786772167234279</v>
+        <v>0.04909922620038974</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>39</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1199700863.809657</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3757292689.122137</v>
+        <v>4357552038.439533</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1349637015252486</v>
+        <v>0.1119179006318263</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0487112452917603</v>
+        <v>0.05295457206917417</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1878646391.135563</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2704075606.94978</v>
+        <v>3486657605.298332</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1401049444749624</v>
+        <v>0.1242358859300942</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02946048541426093</v>
+        <v>0.03265419281629971</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>73</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1352037855.123645</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>965638220.9947468</v>
+        <v>970621791.9408733</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1256009477164115</v>
+        <v>0.1855402965962503</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01966311967107561</v>
+        <v>0.02260849840041087</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>482819131.3837421</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2344394801.739062</v>
+        <v>2746357182.603301</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1460921939959021</v>
+        <v>0.1198411272934077</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0314179108721182</v>
+        <v>0.02288998437443157</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1172197390.518223</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1643364687.245672</v>
+        <v>1982265614.349061</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0913863428861455</v>
+        <v>0.09301279442302601</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02778062386763555</v>
+        <v>0.02904886402426625</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>821682413.6849847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3189315931.041637</v>
+        <v>3462574173.533271</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09901120165470273</v>
+        <v>0.1265571041184614</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04446815022170662</v>
+        <v>0.03692510201420713</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1594658015.703794</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1520551791.777014</v>
+        <v>1401344611.534401</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1337589052178697</v>
+        <v>0.1848473604391315</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03464321036657141</v>
+        <v>0.05304557982451597</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>760275878.3508042</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3207647473.057522</v>
+        <v>3341766002.157757</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1054681363680592</v>
+        <v>0.1142919779063956</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03264560969443144</v>
+        <v>0.02612554441081781</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>66</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1603823757.795872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1062025521.729198</v>
+        <v>1141243782.217944</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09767773723639006</v>
+        <v>0.1092016418983986</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02874535320383586</v>
+        <v>0.02416031696624433</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>531012810.5810603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1296539485.308777</v>
+        <v>1296884278.828453</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1173243546316247</v>
+        <v>0.1116243331573706</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02732427658914774</v>
+        <v>0.03900204964785827</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>648269787.2869173</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3188554646.300169</v>
+        <v>3064900955.330737</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1238030488557506</v>
+        <v>0.10887114754304</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02647509957440704</v>
+        <v>0.02153235032438008</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>54</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1594277373.580709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2712625603.658061</v>
+        <v>3311112555.439356</v>
       </c>
       <c r="F28" t="n">
-        <v>0.151212411783453</v>
+        <v>0.1476887638259322</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04793262923550173</v>
+        <v>0.04910222219523001</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>72</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1356312788.097638</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4505073685.876605</v>
+        <v>4552284354.625099</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09902201605754744</v>
+        <v>0.09792853617549105</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04313695575307161</v>
+        <v>0.04402989270235814</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>99</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2252536824.759291</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2368143823.63559</v>
+        <v>2260271295.746272</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1166847521172703</v>
+        <v>0.09669647375733124</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03673685252302022</v>
+        <v>0.03217283233515426</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1184071991.191166</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1193297936.229144</v>
+        <v>1374665093.628901</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06812270820846554</v>
+        <v>0.1042566695501542</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03599233096177305</v>
+        <v>0.04823184047343143</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>596648921.14899</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1354442577.338983</v>
+        <v>1838766288.84431</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1033449811226864</v>
+        <v>0.07598845913059089</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03128402825550665</v>
+        <v>0.03459337041337095</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>677221326.8668971</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2173183533.888523</v>
+        <v>1985416106.658156</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1367758734990777</v>
+        <v>0.2014006931286559</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05605959807779404</v>
+        <v>0.05497155922891547</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>65</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1086591832.992736</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1265989991.594273</v>
+        <v>1064673419.182055</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1118505860197626</v>
+        <v>0.07726893227069415</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02265815078789237</v>
+        <v>0.01989852738023036</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>632994989.9864708</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>909834112.4809642</v>
+        <v>1116917149.497821</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1046217368864722</v>
+        <v>0.07803090373715849</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04519415169098484</v>
+        <v>0.03193868358995421</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>454917094.5717396</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2688324427.023278</v>
+        <v>2074413675.06249</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1619806132223095</v>
+        <v>0.1228848711956987</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02703134061678706</v>
+        <v>0.02628176167642847</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>56</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1344162220.401702</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2897394054.544281</v>
+        <v>1893000886.412374</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08471144882648657</v>
+        <v>0.07450217803766035</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03292884307881738</v>
+        <v>0.02872773335691576</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>58</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1448697177.965296</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1794917485.335052</v>
+        <v>1772709677.062167</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07824021120660549</v>
+        <v>0.1033440772655214</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03222872998945624</v>
+        <v>0.03594328627602707</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>897458750.2495649</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1842224543.308645</v>
+        <v>1965948554.690572</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1929139542043708</v>
+        <v>0.1470741297555726</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02336786675640231</v>
+        <v>0.02728988219839155</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>921112290.1324291</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1606693278.211089</v>
+        <v>1530958325.341567</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1434558125791947</v>
+        <v>0.1247702992152108</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04774963435595099</v>
+        <v>0.05258125781305042</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>803346578.5905448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1875450070.769855</v>
+        <v>1840631104.299253</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1035227265500834</v>
+        <v>0.1286199471663495</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04030801219119288</v>
+        <v>0.03467784371999368</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>937725121.8355836</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4341364308.457806</v>
+        <v>2940331900.181355</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09583433745375418</v>
+        <v>0.09019290159765068</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02821159745581989</v>
+        <v>0.03342473139128398</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2170682206.978408</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2291155218.229405</v>
+        <v>2006727160.621287</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1850377559759931</v>
+        <v>0.1441892454298316</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01975547001239685</v>
+        <v>0.01742273411062774</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>77</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1145577678.744788</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1860262452.835077</v>
+        <v>1902906271.940737</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06429759102453242</v>
+        <v>0.08489792188728927</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02643514696199466</v>
+        <v>0.03019304063152563</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>930131304.8563588</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2120277313.304207</v>
+        <v>1807046338.801707</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1575453201958385</v>
+        <v>0.1734172611175343</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0377460808680489</v>
+        <v>0.04210370921318283</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1060138659.629315</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4017553079.093516</v>
+        <v>5195496640.871393</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1228607853530091</v>
+        <v>0.1604277520609809</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05390202544540122</v>
+        <v>0.05120984891068619</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>79</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2008776510.08127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5011927450.722657</v>
+        <v>3671189539.889221</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1767987897570746</v>
+        <v>0.1839126998209201</v>
       </c>
       <c r="G47" t="n">
-        <v>0.038764163855321</v>
+        <v>0.05780651666717679</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>60</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2505963781.851635</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4522485965.930982</v>
+        <v>3527682107.473362</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09623654780964588</v>
+        <v>0.07032979435427558</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03766642361854345</v>
+        <v>0.03204174997687813</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2261242986.940076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1292092995.071475</v>
+        <v>1887787813.808181</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1600016196567928</v>
+        <v>0.1820640889183179</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03360352592017808</v>
+        <v>0.02713154666524534</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>646046561.8727238</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3362672281.479947</v>
+        <v>4178242418.942685</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1584826367683755</v>
+        <v>0.1535087269494599</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03268214765964272</v>
+        <v>0.0463863534258659</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>76</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1681336174.743018</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1537199845.32006</v>
+        <v>1254322964.401794</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1914708409633364</v>
+        <v>0.1610110427810833</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05317228349291916</v>
+        <v>0.04119693760984737</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>768599919.5591516</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4952837222.318119</v>
+        <v>4524492641.141073</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1054165096793202</v>
+        <v>0.09676318468013528</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04247866241393644</v>
+        <v>0.04118981436567571</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>92</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2476418611.543183</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2357890244.611342</v>
+        <v>3189325974.239135</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1396392812993391</v>
+        <v>0.1540317219522743</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02869702791265972</v>
+        <v>0.03482154845018422</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>64</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1178945199.057909</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3860426835.127718</v>
+        <v>3110375132.753331</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1524301854195824</v>
+        <v>0.1644157860816181</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05179686377727974</v>
+        <v>0.04785847770185605</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>74</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1930213470.674263</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3854597865.689181</v>
+        <v>4692363079.113795</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1863964608798052</v>
+        <v>0.1808053350326282</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0267339047325196</v>
+        <v>0.02194093469771123</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1927298901.310085</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1421544387.638011</v>
+        <v>1651271095.359731</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1476606860785932</v>
+        <v>0.100671819841726</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04344133225684983</v>
+        <v>0.04305039262518277</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>710772247.6989185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3623592915.852795</v>
+        <v>3229892782.041673</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1534045801551328</v>
+        <v>0.1469186532502721</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0173181004247312</v>
+        <v>0.01712192092493241</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>71</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1811796514.674938</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1159285982.673801</v>
+        <v>1599428978.923422</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1691976624437018</v>
+        <v>0.1470688912201899</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0361802042399257</v>
+        <v>0.03180666959907667</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>579643053.5422217</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4113637587.317384</v>
+        <v>5110778928.732407</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1214402385109427</v>
+        <v>0.08361153371775472</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04118607745517817</v>
+        <v>0.04790916444967262</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>62</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2056818764.115974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2615388022.792801</v>
+        <v>3013581570.243107</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1464415958445261</v>
+        <v>0.1809268953632259</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02613057784703929</v>
+        <v>0.03352783238898558</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1307694041.388715</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3228067715.924095</v>
+        <v>3096930956.283686</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1574871806089132</v>
+        <v>0.1307524811291926</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03060937071187463</v>
+        <v>0.02681083934640069</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>78</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1614033816.91314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1948882147.367051</v>
+        <v>1488970543.608597</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1676057781030198</v>
+        <v>0.137671475034708</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03939389199583771</v>
+        <v>0.04059637666885299</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>974441124.0701343</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4486909600.544522</v>
+        <v>3927932843.013921</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1048511296086789</v>
+        <v>0.09331048787422262</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03184032029111264</v>
+        <v>0.03126266984833036</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>63</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2243454840.903241</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4894555443.334932</v>
+        <v>4859841740.682695</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1244213073078326</v>
+        <v>0.1423348546103045</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03108884274994901</v>
+        <v>0.02291352295050094</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>69</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2447277820.436821</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4554279492.863008</v>
+        <v>4580989079.549139</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1067911756332257</v>
+        <v>0.1712936200440792</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02236028582221653</v>
+        <v>0.03032872454470718</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>80</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2277139731.90987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5537261250.88604</v>
+        <v>5675122916.373859</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1546055058119207</v>
+        <v>0.09854504661532017</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05078387869346072</v>
+        <v>0.04336368823156447</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>65</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2768630681.362818</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3261643032.590691</v>
+        <v>2853900959.122588</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09630383321522749</v>
+        <v>0.08205096435899528</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04986890353401535</v>
+        <v>0.04537673816199871</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>71</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1630821512.400464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3721682559.594766</v>
+        <v>4891751729.813198</v>
       </c>
       <c r="F68" t="n">
-        <v>0.116190909440225</v>
+        <v>0.1429253646246405</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03627071592811828</v>
+        <v>0.04145364309095698</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>71</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1860841258.710585</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1595022119.853677</v>
+        <v>2158844378.249912</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1170111739149648</v>
+        <v>0.1781747440480249</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04309239662200375</v>
+        <v>0.05467504288798276</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>797511012.5070333</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3351729247.469364</v>
+        <v>3712675105.855945</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0956162635377998</v>
+        <v>0.07100088404334347</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03850253091575644</v>
+        <v>0.04896287439497175</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>64</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1675864623.610651</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5014776052.284435</v>
+        <v>3498634126.78933</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1600057369701058</v>
+        <v>0.1767422567986741</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03272244288071213</v>
+        <v>0.02301224067426509</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>81</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2507388132.914299</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1496808451.845376</v>
+        <v>1792113022.409284</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09307945789810966</v>
+        <v>0.07710318048860731</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04529366191271582</v>
+        <v>0.04884434015294245</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>748404253.4080523</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2748028434.921437</v>
+        <v>3594922743.00695</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09612104699820702</v>
+        <v>0.07752332385030705</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03231283755753677</v>
+        <v>0.04924376969766443</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>85</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1374014236.500892</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2922801044.582689</v>
+        <v>3468074316.597275</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1158572124426614</v>
+        <v>0.1777308569487881</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03101964573601988</v>
+        <v>0.02850297155088021</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>76</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1461400594.362399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2449799961.871916</v>
+        <v>2003991359.754122</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1523499491640547</v>
+        <v>0.1203438219153542</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03591140910750371</v>
+        <v>0.02795658571670993</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1224899902.938901</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4022472883.738355</v>
+        <v>4729653491.266295</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09053232018815349</v>
+        <v>0.08076367303687562</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02497973468745017</v>
+        <v>0.02605960008451466</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2011236427.482652</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1777127795.062104</v>
+        <v>1837326815.391705</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1780426314850869</v>
+        <v>0.1460981020087649</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02042819063050672</v>
+        <v>0.0219970839688142</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>888563926.0915188</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4742564356.528744</v>
+        <v>4307524502.458135</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1053926441369943</v>
+        <v>0.1035916443006193</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04552525261387765</v>
+        <v>0.03441148720206706</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>77</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2371282090.811904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1830824726.899941</v>
+        <v>1873347309.503362</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1217943097551205</v>
+        <v>0.1207923153501502</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02858279407559249</v>
+        <v>0.02582459998639966</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>915412455.5129466</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4387026237.218307</v>
+        <v>5397165434.245791</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08920872564673156</v>
+        <v>0.1105692777869672</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02578190417323402</v>
+        <v>0.02579654181938666</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>46</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2193513137.304409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4423248474.886914</v>
+        <v>3986630564.716337</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1115188997667411</v>
+        <v>0.08516778413935618</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02482153093850412</v>
+        <v>0.02402429960140109</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>49</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2211624216.370317</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3732078267.190055</v>
+        <v>4698779341.313194</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1974666918378997</v>
+        <v>0.1835233413566437</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02153041417864774</v>
+        <v>0.02594081377695722</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>78</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1866039188.266573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1578547041.283329</v>
+        <v>2064748795.374912</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0954792882757601</v>
+        <v>0.1090715441448767</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02771842124548462</v>
+        <v>0.04277315047907045</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>789273453.4828253</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1900809325.158569</v>
+        <v>2402343930.290625</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07739042963569923</v>
+        <v>0.1027564362848663</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04003790106945083</v>
+        <v>0.03582001103897905</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>950404682.1414779</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2253438887.992925</v>
+        <v>3335200594.709037</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1492320074388678</v>
+        <v>0.1569185342796409</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03690751531566361</v>
+        <v>0.04407738501485533</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>84</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1126719421.703266</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2163037004.621216</v>
+        <v>2748255293.097544</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1427518049092489</v>
+        <v>0.1579917705218418</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02008332712785385</v>
+        <v>0.02532348436881112</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1081518552.591255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1313422386.089401</v>
+        <v>1420404243.009392</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1818950891425797</v>
+        <v>0.1875411798201759</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02846845444508913</v>
+        <v>0.02810960338253391</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>656711277.6877964</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3737795905.723842</v>
+        <v>3645669475.514719</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1467415468512865</v>
+        <v>0.1121546010246114</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02911918516255205</v>
+        <v>0.02874375517131373</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>88</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1868898056.201506</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2323779865.564706</v>
+        <v>2211127537.371388</v>
       </c>
       <c r="F89" t="n">
-        <v>0.135302487770652</v>
+        <v>0.1406512039265278</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03557871574857694</v>
+        <v>0.04154693914308361</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>75</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1161890020.445121</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1475722805.767656</v>
+        <v>1722191835.380641</v>
       </c>
       <c r="F90" t="n">
-        <v>0.110693793376438</v>
+        <v>0.08782172172010121</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04241528158720601</v>
+        <v>0.05363363810755231</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>737861377.1544021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1284056223.535304</v>
+        <v>1842575305.168868</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1918724606627689</v>
+        <v>0.1591456613046185</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04745785492296031</v>
+        <v>0.06001594779366903</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>642028179.4778699</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1939957875.195343</v>
+        <v>1813248741.471494</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09274103716413253</v>
+        <v>0.07514188909091081</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03839608021128828</v>
+        <v>0.04490526336795039</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>57</v>
-      </c>
-      <c r="J92" t="n">
-        <v>969978879.2076753</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3633638369.973791</v>
+        <v>4189462812.386806</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1376152850562875</v>
+        <v>0.09480862920789621</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03383928497231091</v>
+        <v>0.04472557403816479</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1816819209.259926</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2130092948.399223</v>
+        <v>2493806503.250538</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1413119554082971</v>
+        <v>0.1593634206650527</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03465569448187034</v>
+        <v>0.03312389152397266</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1065046489.445179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2635944689.282812</v>
+        <v>2004357503.338203</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09510293743467899</v>
+        <v>0.1168986339312795</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03536471704644992</v>
+        <v>0.04365006685495651</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>55</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1317972370.826379</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2037184529.445338</v>
+        <v>1751306101.482685</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08617762322628976</v>
+        <v>0.1242397676004836</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04258661648234988</v>
+        <v>0.03766611292342874</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1018592247.722895</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4756721945.688042</v>
+        <v>5262706319.719316</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1332522981085917</v>
+        <v>0.1706333262655945</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01773469255953724</v>
+        <v>0.01850380844558469</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>71</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2378361090.061231</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3557986480.949536</v>
+        <v>3069740843.215307</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09958382019179342</v>
+        <v>0.09512114612329002</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02484772061736865</v>
+        <v>0.02057557528897959</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>60</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1778993263.024577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2118683565.628544</v>
+        <v>3069244809.587112</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1235152104472743</v>
+        <v>0.1101643279606895</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02292882883791978</v>
+        <v>0.02794654152949344</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>70</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1059341704.941446</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3475415676.231396</v>
+        <v>3897129853.828667</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1415341849737857</v>
+        <v>0.1505607295029509</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02708359278684728</v>
+        <v>0.01971360198616051</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1737707866.904624</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3142574206.106487</v>
+        <v>2827639034.558983</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1574234505792055</v>
+        <v>0.1700356730324059</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04226331498008008</v>
+        <v>0.05449257870885149</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>91</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1571287210.980706</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_223.xlsx
+++ b/output/fit_clients/fit_round_223.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2136592430.185724</v>
+        <v>2132809043.1649</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1060619694311266</v>
+        <v>0.09300035676915731</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0276748324198023</v>
+        <v>0.04129559263324296</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1925970281.261579</v>
+        <v>2316595487.18678</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1302257413744677</v>
+        <v>0.1252478887938854</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04582135010186685</v>
+        <v>0.04688605607013337</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3716500070.738558</v>
+        <v>4487604069.524343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1497067565119872</v>
+        <v>0.1405938933109775</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03537554727555219</v>
+        <v>0.02932688283025424</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3404665824.979314</v>
+        <v>3920802357.739036</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08520436143676317</v>
+        <v>0.09299782031303756</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04484978566200001</v>
+        <v>0.03633645752556658</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2388661621.624739</v>
+        <v>2622113811.142723</v>
       </c>
       <c r="F6" t="n">
-        <v>0.14164321440012</v>
+        <v>0.1099406350772563</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0536865797479323</v>
+        <v>0.05579812511587522</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2437328310.875643</v>
+        <v>2140969669.911574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06439490381255587</v>
+        <v>0.07504052509924014</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03623878668993544</v>
+        <v>0.03512788422037516</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3590694228.464381</v>
+        <v>3271886974.359702</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1335459492175625</v>
+        <v>0.2144009323582153</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02944222346303784</v>
+        <v>0.02933724619069572</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1729063686.510254</v>
+        <v>1455080767.394024</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1932235984798761</v>
+        <v>0.1881051465396663</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02952173678056464</v>
+        <v>0.02480846277003171</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5622592447.737712</v>
+        <v>5722362208.445392</v>
       </c>
       <c r="F10" t="n">
-        <v>0.17460361405461</v>
+        <v>0.1303406851604172</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04835573865436651</v>
+        <v>0.03329275324895662</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2869874417.270166</v>
+        <v>3410511368.124607</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1827958501761329</v>
+        <v>0.1316730398019414</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04505658831948038</v>
+        <v>0.04306607536195278</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2584207658.221962</v>
+        <v>2740496015.306169</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1241549662152864</v>
+        <v>0.1950488560745119</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04475806053791506</v>
+        <v>0.0361416369214471</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4336460265.790859</v>
+        <v>3459810208.784754</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08810649935973558</v>
+        <v>0.0761126307145845</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02544601251959478</v>
+        <v>0.03084657599658823</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2791886609.767159</v>
+        <v>2370883148.655585</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1196488001227068</v>
+        <v>0.1137693074074153</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03468713904534797</v>
+        <v>0.03435845529988373</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1546397643.476436</v>
+        <v>1385771380.104611</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09508493254319053</v>
+        <v>0.08886761782930477</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04544052265501922</v>
+        <v>0.03678613517966432</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1906462751.580662</v>
+        <v>2571222996.037347</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1113216007538342</v>
+        <v>0.08852653281923266</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04909922620038974</v>
+        <v>0.03978840251149105</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4357552038.439533</v>
+        <v>4585563104.275219</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1119179006318263</v>
+        <v>0.1462113917187813</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05295457206917417</v>
+        <v>0.05110633082881717</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3486657605.298332</v>
+        <v>2884680852.185588</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1242358859300942</v>
+        <v>0.1624220057335724</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03265419281629971</v>
+        <v>0.0343855645542689</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>970621791.9408733</v>
+        <v>1223076132.09186</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1855402965962503</v>
+        <v>0.1221622653088065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02260849840041087</v>
+        <v>0.02567751828999181</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2746357182.603301</v>
+        <v>2185800145.966267</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1198411272934077</v>
+        <v>0.1090908465832277</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02288998437443157</v>
+        <v>0.02557863463174407</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1982265614.349061</v>
+        <v>2384368607.533421</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09301279442302601</v>
+        <v>0.09249399700389742</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02904886402426625</v>
+        <v>0.04077785990770467</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3462574173.533271</v>
+        <v>3792989753.777987</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1265571041184614</v>
+        <v>0.1359531321638246</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03692510201420713</v>
+        <v>0.04833377307602948</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1401344611.534401</v>
+        <v>1409315711.814149</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1848473604391315</v>
+        <v>0.1454099134594065</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05304557982451597</v>
+        <v>0.03479541948995708</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3341766002.157757</v>
+        <v>2708308512.417236</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1142919779063956</v>
+        <v>0.1215749798387065</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02612554441081781</v>
+        <v>0.03379495417561781</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1141243782.217944</v>
+        <v>1139792272.284857</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1092016418983986</v>
+        <v>0.09707715906584431</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02416031696624433</v>
+        <v>0.02073610758831125</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1296884278.828453</v>
+        <v>1051134943.409646</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1116243331573706</v>
+        <v>0.07952958062337119</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03900204964785827</v>
+        <v>0.0304224804634261</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3064900955.330737</v>
+        <v>4198748161.754899</v>
       </c>
       <c r="F27" t="n">
-        <v>0.10887114754304</v>
+        <v>0.1216007349196184</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02153235032438008</v>
+        <v>0.02602611895524095</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3311112555.439356</v>
+        <v>2928873601.879312</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1476887638259322</v>
+        <v>0.1300056695094445</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04910222219523001</v>
+        <v>0.0347387404294066</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4552284354.625099</v>
+        <v>5792873542.087902</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09792853617549105</v>
+        <v>0.1113252080413113</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04402989270235814</v>
+        <v>0.0294864714060628</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2260271295.746272</v>
+        <v>1602690674.871982</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09669647375733124</v>
+        <v>0.1294431856881055</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03217283233515426</v>
+        <v>0.04009464124097832</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1374665093.628901</v>
+        <v>1353847446.984896</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1042566695501542</v>
+        <v>0.1061037925447097</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04823184047343143</v>
+        <v>0.04867488740244369</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1838766288.84431</v>
+        <v>1410727256.857965</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07598845913059089</v>
+        <v>0.08906082300311323</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03459337041337095</v>
+        <v>0.02512588238371188</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1985416106.658156</v>
+        <v>3007290319.177339</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2014006931286559</v>
+        <v>0.1890345524368949</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05497155922891547</v>
+        <v>0.05491785596740083</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1064673419.182055</v>
+        <v>1303963756.382967</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07726893227069415</v>
+        <v>0.1094463442607771</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01989852738023036</v>
+        <v>0.02088517443784268</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1116917149.497821</v>
+        <v>913186820.1286759</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07803090373715849</v>
+        <v>0.08553117102039402</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03193868358995421</v>
+        <v>0.04376710916408798</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2074413675.06249</v>
+        <v>1977088686.865993</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1228848711956987</v>
+        <v>0.1286308427031123</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02628176167642847</v>
+        <v>0.02268719942423526</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1893000886.412374</v>
+        <v>2328950099.385894</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07450217803766035</v>
+        <v>0.08538704180007278</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02872773335691576</v>
+        <v>0.03383044549790764</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1772709677.062167</v>
+        <v>1606316870.685601</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1033440772655214</v>
+        <v>0.09899111490869941</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03594328627602707</v>
+        <v>0.02792530753953811</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1965948554.690572</v>
+        <v>1691584322.028583</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1470741297555726</v>
+        <v>0.1521666475906207</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02728988219839155</v>
+        <v>0.02425405085088592</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1530958325.341567</v>
+        <v>1668948427.130464</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1247702992152108</v>
+        <v>0.1502858593037145</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05258125781305042</v>
+        <v>0.05599555815521835</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1840631104.299253</v>
+        <v>2034339939.03133</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1286199471663495</v>
+        <v>0.1296278702811244</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03467784371999368</v>
+        <v>0.03491625860000905</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2940331900.181355</v>
+        <v>2960556224.822963</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09019290159765068</v>
+        <v>0.1105373809736044</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03342473139128398</v>
+        <v>0.03022023496608886</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2006727160.621287</v>
+        <v>2458591979.21939</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1441892454298316</v>
+        <v>0.1546452081268968</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01742273411062774</v>
+        <v>0.01698418475956602</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1902906271.940737</v>
+        <v>1980659633.308657</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08489792188728927</v>
+        <v>0.09834742614541087</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03019304063152563</v>
+        <v>0.03168419809393031</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1807046338.801707</v>
+        <v>1703194412.610119</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1734172611175343</v>
+        <v>0.1737304347537352</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04210370921318283</v>
+        <v>0.05232908465060166</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5195496640.871393</v>
+        <v>5352952143.187753</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1604277520609809</v>
+        <v>0.1703758936016398</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05120984891068619</v>
+        <v>0.04409739321256941</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3671189539.889221</v>
+        <v>3939881205.409526</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1839126998209201</v>
+        <v>0.1461889181582471</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05780651666717679</v>
+        <v>0.05846783120750159</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3527682107.473362</v>
+        <v>3111212997.111574</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07032979435427558</v>
+        <v>0.08459621114078465</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03204174997687813</v>
+        <v>0.0239572164097487</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1887787813.808181</v>
+        <v>1428193507.944436</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1820640889183179</v>
+        <v>0.1334442501983084</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02713154666524534</v>
+        <v>0.02696401715300497</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4178242418.942685</v>
+        <v>3225503286.178429</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1535087269494599</v>
+        <v>0.1634707537676895</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0463863534258659</v>
+        <v>0.04191909719267153</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1254322964.401794</v>
+        <v>1098034120.587717</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1610110427810833</v>
+        <v>0.1621445378780171</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04119693760984737</v>
+        <v>0.05011249104988812</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4524492641.141073</v>
+        <v>3339678846.561629</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09676318468013528</v>
+        <v>0.08819740347033234</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04118981436567571</v>
+        <v>0.05823996402531991</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3189325974.239135</v>
+        <v>2782258464.946005</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1540317219522743</v>
+        <v>0.1819437902582594</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03482154845018422</v>
+        <v>0.02789482416844735</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3110375132.753331</v>
+        <v>4307013146.946564</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1644157860816181</v>
+        <v>0.1308103689733373</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04785847770185605</v>
+        <v>0.03626002658281893</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4692363079.113795</v>
+        <v>3900232216.949776</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1808053350326282</v>
+        <v>0.1745855394009353</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02194093469771123</v>
+        <v>0.02353650961680396</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1651271095.359731</v>
+        <v>1661364432.939494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.100671819841726</v>
+        <v>0.1250862478354003</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04305039262518277</v>
+        <v>0.05348016822649332</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3229892782.041673</v>
+        <v>4162188096.431314</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1469186532502721</v>
+        <v>0.1643793399847556</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01712192092493241</v>
+        <v>0.0261740067755481</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1599428978.923422</v>
+        <v>1888101362.244004</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1470688912201899</v>
+        <v>0.1525015534040637</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03180666959907667</v>
+        <v>0.03157487136980279</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5110778928.732407</v>
+        <v>3896411449.146982</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08361153371775472</v>
+        <v>0.0791365411499904</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04790916444967262</v>
+        <v>0.04720110830196042</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3013581570.243107</v>
+        <v>2890900948.055034</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1809268953632259</v>
+        <v>0.1740298787564462</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03352783238898558</v>
+        <v>0.02217703501499717</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3096930956.283686</v>
+        <v>3196863803.238722</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1307524811291926</v>
+        <v>0.1288159691056974</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02681083934640069</v>
+        <v>0.02691902479692314</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1488970543.608597</v>
+        <v>1614392681.878421</v>
       </c>
       <c r="F62" t="n">
-        <v>0.137671475034708</v>
+        <v>0.1689956894322886</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04059637666885299</v>
+        <v>0.03293212066010351</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3927932843.013921</v>
+        <v>5178430472.853168</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09331048787422262</v>
+        <v>0.1047127191732248</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03126266984833036</v>
+        <v>0.03813964591455977</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4859841740.682695</v>
+        <v>4565778990.060353</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1423348546103045</v>
+        <v>0.1699768096854426</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02291352295050094</v>
+        <v>0.0300759481594415</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4580989079.549139</v>
+        <v>4247743706.476408</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1712936200440792</v>
+        <v>0.1422917356320119</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03032872454470718</v>
+        <v>0.02610881416005663</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5675122916.373859</v>
+        <v>4446823606.211592</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09854504661532017</v>
+        <v>0.1322845478592725</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04336368823156447</v>
+        <v>0.03224649438391086</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2853900959.122588</v>
+        <v>2157206724.373989</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08205096435899528</v>
+        <v>0.06427963479649228</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04537673816199871</v>
+        <v>0.04235756308267075</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4891751729.813198</v>
+        <v>5355927141.488587</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1429253646246405</v>
+        <v>0.1595835230397734</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04145364309095698</v>
+        <v>0.0331631923829856</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2158844378.249912</v>
+        <v>1602620835.769692</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1781747440480249</v>
+        <v>0.1837023782418757</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05467504288798276</v>
+        <v>0.04786222886524408</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3712675105.855945</v>
+        <v>3070811990.806308</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07100088404334347</v>
+        <v>0.08100865872737799</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04896287439497175</v>
+        <v>0.04809341971280166</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3498634126.78933</v>
+        <v>3515774005.517177</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1767422567986741</v>
+        <v>0.1505020791106459</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02301224067426509</v>
+        <v>0.03101227131787141</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1792113022.409284</v>
+        <v>2236344859.791774</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07710318048860731</v>
+        <v>0.07412874058121563</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04884434015294245</v>
+        <v>0.03753704548684037</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3594922743.00695</v>
+        <v>3115699697.224492</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07752332385030705</v>
+        <v>0.07153627363702135</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04924376969766443</v>
+        <v>0.04462920765323849</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3468074316.597275</v>
+        <v>3230639650.713004</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1777308569487881</v>
+        <v>0.1612905593145684</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02850297155088021</v>
+        <v>0.03283482009125584</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2003991359.754122</v>
+        <v>2165569727.03722</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1203438219153542</v>
+        <v>0.1660297538823476</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02795658571670993</v>
+        <v>0.02681474181857912</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4729653491.266295</v>
+        <v>4725705865.821541</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08076367303687562</v>
+        <v>0.1117853991139442</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02605960008451466</v>
+        <v>0.02398198685541742</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1837326815.391705</v>
+        <v>2061348546.771557</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1460981020087649</v>
+        <v>0.1502129744251243</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0219970839688142</v>
+        <v>0.02835417161502973</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4307524502.458135</v>
+        <v>4621516962.840866</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1035916443006193</v>
+        <v>0.1107903965181724</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03441148720206706</v>
+        <v>0.05565791865468241</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1873347309.503362</v>
+        <v>1884043389.818849</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1207923153501502</v>
+        <v>0.1484965331095335</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02582459998639966</v>
+        <v>0.04066060877901092</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5397165434.245791</v>
+        <v>4066733987.825475</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1105692777869672</v>
+        <v>0.07774717695218229</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02579654181938666</v>
+        <v>0.02847558527438846</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3986630564.716337</v>
+        <v>5179558262.245656</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08516778413935618</v>
+        <v>0.1346546387761205</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02402429960140109</v>
+        <v>0.02680930949694419</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4698779341.313194</v>
+        <v>3505731408.554251</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1835233413566437</v>
+        <v>0.1398482338063722</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02594081377695722</v>
+        <v>0.0238471255893221</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2064748795.374912</v>
+        <v>1631588969.934549</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1090715441448767</v>
+        <v>0.1171904873868199</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04277315047907045</v>
+        <v>0.03864356344142651</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2402343930.290625</v>
+        <v>2500615926.487582</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1027564362848663</v>
+        <v>0.1120205447464762</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03582001103897905</v>
+        <v>0.03206296209270609</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3335200594.709037</v>
+        <v>2584332874.330888</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1569185342796409</v>
+        <v>0.1848613385171931</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04407738501485533</v>
+        <v>0.03934627588679734</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2748255293.097544</v>
+        <v>2471128358.440212</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1579917705218418</v>
+        <v>0.1068485420194039</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02532348436881112</v>
+        <v>0.02468984999684481</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1420404243.009392</v>
+        <v>1122554681.341786</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1875411798201759</v>
+        <v>0.146785203408088</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02810960338253391</v>
+        <v>0.04310186217855132</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3645669475.514719</v>
+        <v>3543808365.323838</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1121546010246114</v>
+        <v>0.1419118844864275</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02874375517131373</v>
+        <v>0.02426398028159566</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2211127537.371388</v>
+        <v>3061725021.708417</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1406512039265278</v>
+        <v>0.1554588176364258</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04154693914308361</v>
+        <v>0.02673599805557369</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1722191835.380641</v>
+        <v>1531050319.794508</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08782172172010121</v>
+        <v>0.122389802295653</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05363363810755231</v>
+        <v>0.05131959021771935</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1842575305.168868</v>
+        <v>1521053322.169168</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1591456613046185</v>
+        <v>0.1191038527201886</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06001594779366903</v>
+        <v>0.04994663569827928</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1813248741.471494</v>
+        <v>2590390765.152075</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07514188909091081</v>
+        <v>0.1078840647762905</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04490526336795039</v>
+        <v>0.03338810664604143</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4189462812.386806</v>
+        <v>3366893907.300526</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09480862920789621</v>
+        <v>0.1151020838591109</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04472557403816479</v>
+        <v>0.0459221801509269</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2493806503.250538</v>
+        <v>1992457233.936566</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1593634206650527</v>
+        <v>0.1482806446188873</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03312389152397266</v>
+        <v>0.03485065925128076</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2004357503.338203</v>
+        <v>2094859169.026869</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1168986339312795</v>
+        <v>0.1250493115345925</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04365006685495651</v>
+        <v>0.03442803378162182</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1751306101.482685</v>
+        <v>1561227852.556326</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1242397676004836</v>
+        <v>0.08763527207338932</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03766611292342874</v>
+        <v>0.03574472270678</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5262706319.719316</v>
+        <v>4787537367.841529</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1706333262655945</v>
+        <v>0.1629189477969263</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01850380844558469</v>
+        <v>0.01814540278871097</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3069740843.215307</v>
+        <v>2429971677.061779</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09512114612329002</v>
+        <v>0.1216615878824292</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02057557528897959</v>
+        <v>0.02699450436132791</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3069244809.587112</v>
+        <v>2839206057.595946</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1101643279606895</v>
+        <v>0.09167861416521414</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02794654152949344</v>
+        <v>0.03530309631751621</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3897129853.828667</v>
+        <v>2960199636.781002</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1505607295029509</v>
+        <v>0.1783082159517818</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01971360198616051</v>
+        <v>0.024767109318946</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2827639034.558983</v>
+        <v>2569829924.447908</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1700356730324059</v>
+        <v>0.1492519883083554</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05449257870885149</v>
+        <v>0.036459478895169</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_223.xlsx
+++ b/output/fit_clients/fit_round_223.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2132809043.1649</v>
+        <v>2257199784.555672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09300035676915731</v>
+        <v>0.09743105702128901</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04129559263324296</v>
+        <v>0.04543641553020672</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2316595487.18678</v>
+        <v>2253033876.576891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1252478887938854</v>
+        <v>0.1697506919737949</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04688605607013337</v>
+        <v>0.0502051092568013</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4487604069.524343</v>
+        <v>3682643225.016538</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1405938933109775</v>
+        <v>0.1232259584168609</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02932688283025424</v>
+        <v>0.02976583480525445</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>122</v>
+      </c>
+      <c r="J4" t="n">
+        <v>222</v>
+      </c>
+      <c r="K4" t="n">
+        <v>103.3948079703628</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3920802357.739036</v>
+        <v>4263399876.539579</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09299782031303756</v>
+        <v>0.07706396141258924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03633645752556658</v>
+        <v>0.03872122766056185</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>92</v>
+      </c>
+      <c r="J5" t="n">
+        <v>223</v>
+      </c>
+      <c r="K5" t="n">
+        <v>128.7219085478935</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2622113811.142723</v>
+        <v>2188116814.93414</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1099406350772563</v>
+        <v>0.1422370180838404</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05579812511587522</v>
+        <v>0.05614703178240215</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2140969669.911574</v>
+        <v>2071392519.073336</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07504052509924014</v>
+        <v>0.1014765271480869</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03512788422037516</v>
+        <v>0.03517841407333459</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3271886974.359702</v>
+        <v>2878184341.120731</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2144009323582153</v>
+        <v>0.1610091865370096</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02933724619069572</v>
+        <v>0.03168787721310964</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>62</v>
+      </c>
+      <c r="J8" t="n">
+        <v>221</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1455080767.394024</v>
+        <v>2225066244.456529</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1881051465396663</v>
+        <v>0.1447036656306075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02480846277003171</v>
+        <v>0.02367952081090173</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +785,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5722362208.445392</v>
+        <v>4618393264.513144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1303406851604172</v>
+        <v>0.1959629304774294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03329275324895662</v>
+        <v>0.04028050910845474</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>203</v>
+      </c>
+      <c r="J10" t="n">
+        <v>223</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3410511368.124607</v>
+        <v>3725944508.584687</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1316730398019414</v>
+        <v>0.1218706334626895</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04306607536195278</v>
+        <v>0.04151273797190069</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>93</v>
+      </c>
+      <c r="J11" t="n">
+        <v>223</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2740496015.306169</v>
+        <v>2836180616.970776</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1950488560745119</v>
+        <v>0.1834759441963376</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0361416369214471</v>
+        <v>0.03585218026459485</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3459810208.784754</v>
+        <v>4840868167.988532</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0761126307145845</v>
+        <v>0.07151648870408397</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03084657599658823</v>
+        <v>0.02807311561682927</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>112</v>
+      </c>
+      <c r="J13" t="n">
+        <v>223</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2370883148.655585</v>
+        <v>3699555714.427497</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1137693074074153</v>
+        <v>0.1691585015087656</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03435845529988373</v>
+        <v>0.03859400796875642</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>223</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1385771380.104611</v>
+        <v>1669173039.806888</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08886761782930477</v>
+        <v>0.1004123370571634</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03678613517966432</v>
+        <v>0.04908696896966439</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2571222996.037347</v>
+        <v>1861606971.617714</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08852653281923266</v>
+        <v>0.0882652296654296</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03978840251149105</v>
+        <v>0.03440780122754863</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4585563104.275219</v>
+        <v>3507254365.482957</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1462113917187813</v>
+        <v>0.1202269083773612</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05110633082881717</v>
+        <v>0.05012273995763278</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>107</v>
+      </c>
+      <c r="J17" t="n">
+        <v>223</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2884680852.185588</v>
+        <v>2489511677.015958</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1624220057335724</v>
+        <v>0.1570170364405817</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0343855645542689</v>
+        <v>0.02984775086233386</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1223076132.09186</v>
+        <v>1274956070.47433</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1221622653088065</v>
+        <v>0.1312959428351086</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02567751828999181</v>
+        <v>0.01837123208620288</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2185800145.966267</v>
+        <v>2736201146.957878</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1090908465832277</v>
+        <v>0.1087257335899152</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02557863463174407</v>
+        <v>0.02971735314298421</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1170,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2384368607.533421</v>
+        <v>1656796823.262899</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09249399700389742</v>
+        <v>0.07207055217283644</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04077785990770467</v>
+        <v>0.03498634996672514</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1199,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3792989753.777987</v>
+        <v>3180545814.924911</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1359531321638246</v>
+        <v>0.1409935496303761</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04833377307602948</v>
+        <v>0.04450121554895216</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>57</v>
+      </c>
+      <c r="J22" t="n">
+        <v>222</v>
+      </c>
+      <c r="K22" t="n">
+        <v>73.29738406501973</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1409315711.814149</v>
+        <v>1328755627.185656</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1454099134594065</v>
+        <v>0.1830467474604157</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03479541948995708</v>
+        <v>0.04319109479111723</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2708308512.417236</v>
+        <v>3136556753.171398</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1215749798387065</v>
+        <v>0.1022023191701173</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03379495417561781</v>
+        <v>0.03498618170732557</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1139792272.284857</v>
+        <v>1389917210.523812</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09707715906584431</v>
+        <v>0.100136371015269</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02073610758831125</v>
+        <v>0.02331466356821703</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1051134943.409646</v>
+        <v>1112219560.406765</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07952958062337119</v>
+        <v>0.1032051783073708</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0304224804634261</v>
+        <v>0.03749077010182881</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4198748161.754899</v>
+        <v>4352996493.097294</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1216007349196184</v>
+        <v>0.1352499832823592</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02602611895524095</v>
+        <v>0.02339405630521668</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>89</v>
+      </c>
+      <c r="J27" t="n">
+        <v>222</v>
+      </c>
+      <c r="K27" t="n">
+        <v>97.47678452858976</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2928873601.879312</v>
+        <v>3159289524.94111</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1300056695094445</v>
+        <v>0.1225804357128672</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0347387404294066</v>
+        <v>0.03948421604898354</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>46</v>
+      </c>
+      <c r="J28" t="n">
+        <v>222</v>
+      </c>
+      <c r="K28" t="n">
+        <v>78.52706112176487</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5792873542.087902</v>
+        <v>3960859771.681655</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1113252080413113</v>
+        <v>0.09323753429658567</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0294864714060628</v>
+        <v>0.0360577057242199</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>212</v>
+      </c>
+      <c r="J29" t="n">
+        <v>223</v>
+      </c>
+      <c r="K29" t="n">
+        <v>123.5521811169673</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1602690674.871982</v>
+        <v>1985781129.298211</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1294431856881055</v>
+        <v>0.1003686462800678</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04009464124097832</v>
+        <v>0.03799714876234662</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1353847446.984896</v>
+        <v>1108278100.538249</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1061037925447097</v>
+        <v>0.09559609270490366</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04867488740244369</v>
+        <v>0.04010955786640685</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1410727256.857965</v>
+        <v>1534579230.123734</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08906082300311323</v>
+        <v>0.111679610577419</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02512588238371188</v>
+        <v>0.03870639236362775</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3007290319.177339</v>
+        <v>3121383030.626342</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1890345524368949</v>
+        <v>0.1594487045576764</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05491785596740083</v>
+        <v>0.03800269987778563</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1303963756.382967</v>
+        <v>1267633984.102486</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1094463442607771</v>
+        <v>0.08153813442460663</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02088517443784268</v>
+        <v>0.02011783567157518</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>913186820.1286759</v>
+        <v>824549520.0484624</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08553117102039402</v>
+        <v>0.09663672836825075</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04376710916408798</v>
+        <v>0.03070271125359147</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1977088686.865993</v>
+        <v>2280571589.394972</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1286308427031123</v>
+        <v>0.151619132450851</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02268719942423526</v>
+        <v>0.02006372632017183</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2328950099.385894</v>
+        <v>1784896352.730365</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08538704180007278</v>
+        <v>0.07988641824155963</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03383044549790764</v>
+        <v>0.03281284336793197</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1606316870.685601</v>
+        <v>1822945915.410327</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09899111490869941</v>
+        <v>0.09932544151275194</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02792530753953811</v>
+        <v>0.038815743574751</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1691584322.028583</v>
+        <v>2018832430.791759</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1521666475906207</v>
+        <v>0.14932912499014</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02425405085088592</v>
+        <v>0.02083134279793713</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1668948427.130464</v>
+        <v>1250939004.12787</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1502858593037145</v>
+        <v>0.1295675005626456</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05599555815521835</v>
+        <v>0.04780384091369454</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2034339939.03133</v>
+        <v>2483572894.045248</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1296278702811244</v>
+        <v>0.1309996401655609</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03491625860000905</v>
+        <v>0.04332708739571398</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2960556224.822963</v>
+        <v>2688798158.674434</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1105373809736044</v>
+        <v>0.1027329912389601</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03022023496608886</v>
+        <v>0.03427603105403929</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>89</v>
+      </c>
+      <c r="J42" t="n">
+        <v>222</v>
+      </c>
+      <c r="K42" t="n">
+        <v>59.70821496165976</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2458591979.21939</v>
+        <v>1987755066.848062</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1546452081268968</v>
+        <v>0.1706219769224462</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01698418475956602</v>
+        <v>0.02476854327050907</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1980659633.308657</v>
+        <v>1860066959.310727</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09834742614541087</v>
+        <v>0.0772022130399416</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03168419809393031</v>
+        <v>0.02394923582094655</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1703194412.610119</v>
+        <v>2331659571.510141</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1737304347537352</v>
+        <v>0.1458370567675354</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05232908465060166</v>
+        <v>0.03890874703049867</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5352952143.187753</v>
+        <v>4572683131.032908</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1703758936016398</v>
+        <v>0.1750301937025396</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04409739321256941</v>
+        <v>0.051769642139899</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>128</v>
+      </c>
+      <c r="J46" t="n">
+        <v>223</v>
+      </c>
+      <c r="K46" t="n">
+        <v>112.7545798190062</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3939881205.409526</v>
+        <v>3922135635.481759</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1461889181582471</v>
+        <v>0.1427255179839428</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05846783120750159</v>
+        <v>0.04121811913415763</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>100</v>
+      </c>
+      <c r="J47" t="n">
+        <v>223</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3111212997.111574</v>
+        <v>2970186466.920458</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08459621114078465</v>
+        <v>0.06955950345454399</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0239572164097487</v>
+        <v>0.0363025197806124</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>109</v>
+      </c>
+      <c r="J48" t="n">
+        <v>219</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1428193507.944436</v>
+        <v>1448635589.508137</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1334442501983084</v>
+        <v>0.1693839982428713</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02696401715300497</v>
+        <v>0.03280094426347833</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3225503286.178429</v>
+        <v>3927129495.819333</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1634707537676895</v>
+        <v>0.1452817974838976</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04191909719267153</v>
+        <v>0.04094021398798097</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>72</v>
+      </c>
+      <c r="J50" t="n">
+        <v>223</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1098034120.587717</v>
+        <v>1067696014.649032</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1621445378780171</v>
+        <v>0.187076138626664</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05011249104988812</v>
+        <v>0.03418465606096357</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3339678846.561629</v>
+        <v>4328848933.265454</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08819740347033234</v>
+        <v>0.1088219878915804</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05823996402531991</v>
+        <v>0.05941951630528945</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>149</v>
+      </c>
+      <c r="J52" t="n">
+        <v>222</v>
+      </c>
+      <c r="K52" t="n">
+        <v>108.641760552437</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2782258464.946005</v>
+        <v>3269460717.464911</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1819437902582594</v>
+        <v>0.1672895977680864</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02789482416844735</v>
+        <v>0.03312763240789324</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>221</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4307013146.946564</v>
+        <v>3788215085.441411</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1308103689733373</v>
+        <v>0.1666828660574783</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03626002658281893</v>
+        <v>0.04655547734770836</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>119</v>
+      </c>
+      <c r="J54" t="n">
+        <v>222</v>
+      </c>
+      <c r="K54" t="n">
+        <v>112.60856655686</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3900232216.949776</v>
+        <v>3333580165.722215</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1745855394009353</v>
+        <v>0.1689696856896855</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02353650961680396</v>
+        <v>0.03096949039842787</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>100</v>
+      </c>
+      <c r="J55" t="n">
+        <v>223</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1661364432.939494</v>
+        <v>1395812276.057475</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1250862478354003</v>
+        <v>0.154847649588727</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05348016822649332</v>
+        <v>0.05672513600096321</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4162188096.431314</v>
+        <v>3807948377.523235</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1643793399847556</v>
+        <v>0.1295828651946888</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0261740067755481</v>
+        <v>0.02352828819088378</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>87</v>
+      </c>
+      <c r="J57" t="n">
+        <v>222</v>
+      </c>
+      <c r="K57" t="n">
+        <v>110.9895145430209</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1888101362.244004</v>
+        <v>1509475174.560529</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1525015534040637</v>
+        <v>0.1624892032941424</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03157487136980279</v>
+        <v>0.03246937710763772</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3896411449.146982</v>
+        <v>4732637912.127859</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0791365411499904</v>
+        <v>0.1077248467244612</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04720110830196042</v>
+        <v>0.03981432423629335</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>108</v>
+      </c>
+      <c r="J59" t="n">
+        <v>222</v>
+      </c>
+      <c r="K59" t="n">
+        <v>102.7999367580643</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2890900948.055034</v>
+        <v>2764797686.003348</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1740298787564462</v>
+        <v>0.1968075796801416</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02217703501499717</v>
+        <v>0.02092243134903988</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3196863803.238722</v>
+        <v>3237929705.581804</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1288159691056974</v>
+        <v>0.1482831153607009</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02691902479692314</v>
+        <v>0.03140276160838673</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1614392681.878421</v>
+        <v>1528084768.561713</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1689956894322886</v>
+        <v>0.1402771176950313</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03293212066010351</v>
+        <v>0.04514176374246952</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5178430472.853168</v>
+        <v>4881019268.8536</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1047127191732248</v>
+        <v>0.08898132493830087</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03813964591455977</v>
+        <v>0.0463051991370616</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>108</v>
+      </c>
+      <c r="J63" t="n">
+        <v>223</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4565778990.060353</v>
+        <v>3440925816.733069</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1699768096854426</v>
+        <v>0.1462356676265733</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0300759481594415</v>
+        <v>0.02723181230823931</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>110</v>
+      </c>
+      <c r="J64" t="n">
+        <v>222</v>
+      </c>
+      <c r="K64" t="n">
+        <v>88.83393652789862</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4247743706.476408</v>
+        <v>5342556649.752913</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1422917356320119</v>
+        <v>0.1426700162664075</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02610881416005663</v>
+        <v>0.02849773131581508</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>176</v>
+      </c>
+      <c r="J65" t="n">
+        <v>223</v>
+      </c>
+      <c r="K65" t="n">
+        <v>114.9064830404879</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4446823606.211592</v>
+        <v>5557473498.470384</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1322845478592725</v>
+        <v>0.1416717160675701</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03224649438391086</v>
+        <v>0.04904975775011119</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>110</v>
+      </c>
+      <c r="J66" t="n">
+        <v>222</v>
+      </c>
+      <c r="K66" t="n">
+        <v>100.4759662407591</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2157206724.373989</v>
+        <v>2467464223.91036</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06427963479649228</v>
+        <v>0.09045185913257942</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04235756308267075</v>
+        <v>0.05061305446534577</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>211</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5355927141.488587</v>
+        <v>4123268715.740834</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1595835230397734</v>
+        <v>0.138493038010353</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0331631923829856</v>
+        <v>0.03602413303310467</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>112</v>
+      </c>
+      <c r="J68" t="n">
+        <v>223</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1602620835.769692</v>
+        <v>1796325469.34262</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1837023782418757</v>
+        <v>0.1265138011897094</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04786222886524408</v>
+        <v>0.04358791991218471</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3070811990.806308</v>
+        <v>3718754094.020093</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08100865872737799</v>
+        <v>0.08373109952438615</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04809341971280166</v>
+        <v>0.03662124491364194</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>223</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3515774005.517177</v>
+        <v>3834131357.782487</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1505020791106459</v>
+        <v>0.1151515243342299</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03101227131787141</v>
+        <v>0.02527951040924865</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>170</v>
+      </c>
+      <c r="J71" t="n">
+        <v>223</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2236344859.791774</v>
+        <v>1873842790.010413</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07412874058121563</v>
+        <v>0.06646414924643114</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03753704548684037</v>
+        <v>0.04629744143995004</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3115699697.224492</v>
+        <v>2921296032.671858</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07153627363702135</v>
+        <v>0.112010729665753</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04462920765323849</v>
+        <v>0.03787942396797454</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3230639650.713004</v>
+        <v>2728298062.986888</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1612905593145684</v>
+        <v>0.1756193803131464</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03283482009125584</v>
+        <v>0.02556555752446932</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>64</v>
+      </c>
+      <c r="J74" t="n">
+        <v>218</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2165569727.03722</v>
+        <v>1869151841.078401</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1660297538823476</v>
+        <v>0.1281733137729235</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02681474181857912</v>
+        <v>0.03443720765502172</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4725705865.821541</v>
+        <v>4115697461.225874</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1117853991139442</v>
+        <v>0.08678839147064484</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02398198685541742</v>
+        <v>0.02840149838869349</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>103</v>
+      </c>
+      <c r="J76" t="n">
+        <v>222</v>
+      </c>
+      <c r="K76" t="n">
+        <v>98.10606854879617</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2061348546.771557</v>
+        <v>1895791447.74685</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1502129744251243</v>
+        <v>0.11329290870097</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02835417161502973</v>
+        <v>0.02376323013796854</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4621516962.840866</v>
+        <v>3323808289.825529</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1107903965181724</v>
+        <v>0.1269151616742478</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05565791865468241</v>
+        <v>0.04272881048426195</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>112</v>
+      </c>
+      <c r="J78" t="n">
+        <v>222</v>
+      </c>
+      <c r="K78" t="n">
+        <v>87.06522410658127</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1884043389.818849</v>
+        <v>1244587533.149298</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1484965331095335</v>
+        <v>0.1755545426190924</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04066060877901092</v>
+        <v>0.03738776723459522</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4066733987.825475</v>
+        <v>5345282448.380449</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07774717695218229</v>
+        <v>0.1031525996398958</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02847558527438846</v>
+        <v>0.03535346960926516</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>108</v>
+      </c>
+      <c r="J80" t="n">
+        <v>223</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5179558262.245656</v>
+        <v>4232187356.675352</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1346546387761205</v>
+        <v>0.1263808353216514</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02680930949694419</v>
+        <v>0.02821490111335644</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>102</v>
+      </c>
+      <c r="J81" t="n">
+        <v>223</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3505731408.554251</v>
+        <v>3755315693.67903</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1398482338063722</v>
+        <v>0.1719422192753374</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0238471255893221</v>
+        <v>0.02738613553273858</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>166</v>
+      </c>
+      <c r="J82" t="n">
+        <v>223</v>
+      </c>
+      <c r="K82" t="n">
+        <v>114.8874311874104</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1631588969.934549</v>
+        <v>1533762424.023163</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1171904873868199</v>
+        <v>0.1406294170499809</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03864356344142651</v>
+        <v>0.04502011619510729</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2500615926.487582</v>
+        <v>2065066450.69171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1120205447464762</v>
+        <v>0.09150994841527241</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03206296209270609</v>
+        <v>0.05128279804370649</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2584332874.330888</v>
+        <v>2369791954.741592</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1848613385171931</v>
+        <v>0.1230178460454719</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03934627588679734</v>
+        <v>0.04900903076079688</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2471128358.440212</v>
+        <v>2583449699.293858</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1068485420194039</v>
+        <v>0.1179169120163029</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02468984999684481</v>
+        <v>0.02387000439210519</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1122554681.341786</v>
+        <v>1391452126.329692</v>
       </c>
       <c r="F87" t="n">
-        <v>0.146785203408088</v>
+        <v>0.1896710675078676</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04310186217855132</v>
+        <v>0.04131191543654163</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3543808365.323838</v>
+        <v>3069905111.677028</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1419118844864275</v>
+        <v>0.1667501198018017</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02426398028159566</v>
+        <v>0.03482901768732561</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3061725021.708417</v>
+        <v>3227237203.493855</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1554588176364258</v>
+        <v>0.1555393299829062</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02673599805557369</v>
+        <v>0.03396869536758483</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>16</v>
+      </c>
+      <c r="J89" t="n">
+        <v>220</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1531050319.794508</v>
+        <v>2065672830.05062</v>
       </c>
       <c r="F90" t="n">
-        <v>0.122389802295653</v>
+        <v>0.125551172347993</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05131959021771935</v>
+        <v>0.054944268875387</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1521053322.169168</v>
+        <v>1427474473.064061</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1191038527201886</v>
+        <v>0.1562218628078614</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04994663569827928</v>
+        <v>0.03959478888355154</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2590390765.152075</v>
+        <v>1941605161.982204</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1078840647762905</v>
+        <v>0.07518168349867063</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03338810664604143</v>
+        <v>0.02982894881833324</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3366893907.300526</v>
+        <v>3794070607.787777</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1151020838591109</v>
+        <v>0.09066110570042837</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0459221801509269</v>
+        <v>0.04379477122525326</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>100</v>
+      </c>
+      <c r="J93" t="n">
+        <v>222</v>
+      </c>
+      <c r="K93" t="n">
+        <v>107.63133986834</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1992457233.936566</v>
+        <v>1773451651.185045</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1482806446188873</v>
+        <v>0.1069147764362835</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03485065925128076</v>
+        <v>0.03805819863348093</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2094859169.026869</v>
+        <v>2594344880.047093</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1250493115345925</v>
+        <v>0.100119814292228</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03442803378162182</v>
+        <v>0.04156320939118744</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1561227852.556326</v>
+        <v>2115655579.953303</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08763527207338932</v>
+        <v>0.1357326764562591</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03574472270678</v>
+        <v>0.04475196910826013</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4787537367.841529</v>
+        <v>3534941408.252836</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1629189477969263</v>
+        <v>0.1642579746675188</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01814540278871097</v>
+        <v>0.01936085035720745</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>108</v>
+      </c>
+      <c r="J97" t="n">
+        <v>222</v>
+      </c>
+      <c r="K97" t="n">
+        <v>95.89220809204805</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2429971677.061779</v>
+        <v>3308945065.802155</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1216615878824292</v>
+        <v>0.1154697903386428</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02699450436132791</v>
+        <v>0.02993084552847515</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>53</v>
+      </c>
+      <c r="J98" t="n">
+        <v>209</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2839206057.595946</v>
+        <v>2281920165.651443</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09167861416521414</v>
+        <v>0.1197093668462016</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03530309631751621</v>
+        <v>0.02867419482315001</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2960199636.781002</v>
+        <v>4732671952.605048</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1783082159517818</v>
+        <v>0.1431589712199184</v>
       </c>
       <c r="G100" t="n">
-        <v>0.024767109318946</v>
+        <v>0.02158962952674481</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>93</v>
+      </c>
+      <c r="J100" t="n">
+        <v>223</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2569829924.447908</v>
+        <v>2383572209.46816</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1492519883083554</v>
+        <v>0.1722890621055939</v>
       </c>
       <c r="G101" t="n">
-        <v>0.036459478895169</v>
+        <v>0.0452479278471301</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
